--- a/autoPy/data/check_data.xlsx
+++ b/autoPy/data/check_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB35F1-1CA0-4774-9DC8-9F754154DC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0692A0-3D1A-4A6D-9D46-287FBD48CBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2865" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_log" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>id,module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,需求统计-统计用户需求花费工时(执行)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,8 +497,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -502,23 +506,44 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -526,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56DB71C-262C-4D9D-A5C0-DB593E7F6E58}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/autoPy/data/check_data.xlsx
+++ b/autoPy/data/check_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0692A0-3D1A-4A6D-9D46-287FBD48CBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428A12B-7834-4DD4-8201-CB764D698A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_log" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,11 +551,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56DB71C-262C-4D9D-A5C0-DB593E7F6E58}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -592,6 +595,9 @@
       </c>
       <c r="E2" t="s">
         <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
